--- a/词汇/数据库导入/015.-pear-=-par-生.xlsx
+++ b/词汇/数据库导入/015.-pear-=-par-生.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,1476 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>appear [ə'pɪə]</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出现；显得；似乎；出庭；登场【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>appearance [ə'pɪər(ə)ns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外貌，外观；出现，露面【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1691</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【appear+ance名词后缀】</t>
+  </si>
+  <si>
+    <t>disappear [dɪsə'pɪə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不见；消失【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1583</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B4M6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【dis+否定】</t>
+  </si>
+  <si>
+    <t>disappearance [dɪsə'pɪərəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消失；不见【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6624</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【disappear+ance名词后缀】</t>
+  </si>
+  <si>
+    <t>disappeared [dɪsə'pɪəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消失的；消失了的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【disappear+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>reappear [riːə'pɪə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再出现【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re+再次disappear】</t>
+  </si>
+  <si>
+    <t>reappearance [,riːə'pɪərəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再现【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25748</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ance名词后缀】</t>
+  </si>
+  <si>
+    <t>parent ['pεərənt]</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父亲，母亲；双亲，父母【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24840</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-par-生--生了孩子+ent名词后缀-生了孩子的人--父母】</t>
+  </si>
+  <si>
+    <t>parental [pə'rentl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父母的</t>
+    </r>
+  </si>
+  <si>
+    <t>【al形容词后缀】</t>
+  </si>
+  <si>
+    <t>biparental [,baɪpə'rɛntl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双亲的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59683</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【bi,二，双】</t>
+  </si>
+  <si>
+    <t>stepparent ['step,peərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继母；继父【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24885</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【step-后+parent父母--后来的父母--继父继母】</t>
+  </si>
+  <si>
+    <t>grandparent ['græn(d)peər(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祖父母；祖父或祖母；外祖父母；外祖父或外祖母【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4723</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词grand更高一级】</t>
+  </si>
+  <si>
+    <t>great-grandparent [,ɡreit'ɡrænd,pεərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾祖父或曾祖母；外曾祖父或外曾祖母【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词grand再更高一级】</t>
+  </si>
+  <si>
+    <t>godparent ['gɒdpeər(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教父或教母【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36151</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>parentage ['pεərəntidʒ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出身，家系，门第【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【age名词后缀】</t>
+  </si>
+  <si>
+    <t>parenting ['peərəntɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父母对子女的养育【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5509</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ing动名词后缀】</t>
+  </si>
+  <si>
+    <t>one-parent ['wʌn'pεərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单亲的，只有父亲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或母亲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45542</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>two-parent ['tuː'pεərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双亲的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>single-parent ['sɪŋg(ə)l-'pεərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单亲；单身母亲；单身父亲【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16479</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>parent-adolescent ['pεərənt-ædə'les(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲子【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35397</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词adolescent青少年】</t>
+  </si>
+  <si>
+    <t>heir-apparent [eə-ə'pær(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法定继承人，有确定继承权的人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>non-parental [nɔn-'pεərənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非亲的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55661</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>parenthood ['peər(ə)nthʊd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲子关系；父母身份【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>parent-child ['pærənt tʃɛəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>父子关系；主从关系【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18154</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>apparent [ə'pær(ə)nt]</t>
+  </si>
+  <si>
+    <t>apparent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显然的；表面上的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ap-强调+par生--生出来--出现 --显然+形容词后缀】</t>
+  </si>
+  <si>
+    <t>apparently [ə'pærəntlɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看起来；显然；据说，听说，似乎【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1411</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X11M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>apparition [æpə'rɪʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幽灵；幻影；鬼怪；离奇出现的东西【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13137</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ap-强调+par生--出现--幻影+ition=ation复合名词后缀】</t>
+  </si>
+  <si>
+    <t>transparent [træn'spær(ə)nt]</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>透明的；显然的；坦率的；易懂的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X6M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【trans改变，通过+par生--生出来--透过来--透明+ent形容词后缀】</t>
+  </si>
+  <si>
+    <t>transparently ['træns'pɛrəntli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显然地，易觉察地；明亮地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>transparentize [træns'pɛrəntaɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使更接近透明；使透明</t>
+    </r>
+  </si>
+  <si>
+    <t>【ize动词后缀】</t>
+  </si>
+  <si>
+    <t>transparence[træns'pɛrəns]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>透明；透明度</t>
+    </r>
+  </si>
+  <si>
+    <t>transparency [træn'spær(ə)nsɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>透明，透明度；幻灯片；有图案的玻璃【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8689</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ency名词后缀】</t>
+  </si>
+  <si>
+    <t>semi-transparent ['sem(a)i-'træns'pɛrəntli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半透明的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38559</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【semi半】</t>
+  </si>
+  <si>
+    <t>primipara [prai'mipərə]</t>
+  </si>
+  <si>
+    <t>primipara</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初产妇</t>
+    </r>
+  </si>
+  <si>
+    <t>primiparity [,praimi'pærəti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初产</t>
+    </r>
+  </si>
+  <si>
+    <t>【ity名词后缀】</t>
+  </si>
+  <si>
+    <t>primiparous [prai'mipərəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初产的</t>
+    </r>
+  </si>
+  <si>
+    <t>【ous形容词后缀】</t>
+  </si>
+  <si>
+    <t>biparous ['bipərəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双生的，一产双胎的</t>
+    </r>
+  </si>
+  <si>
+    <t>【bi二+par生出来两个--双生+ous形容词后缀】</t>
+  </si>
+  <si>
+    <t>multiparous [mʌl'tipərəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多产的，一产多胎的</t>
+    </r>
+  </si>
+  <si>
+    <t>【multi多+par生--生产+ous】</t>
+  </si>
+  <si>
+    <t>fissiparous [fi'sipærəs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分裂生殖的，分体繁殖的</t>
+    </r>
+  </si>
+  <si>
+    <t>【fiss分裂+i+par生--分裂生殖+iys形容词后缀】</t>
   </si>
 </sst>
 </file>
@@ -38,12 +1508,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +1522,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +1602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +1619,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +1627,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,46 +1656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -172,9 +1663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +1678,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,7 +1693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,25 +1711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,13 +1729,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +1789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +1813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,61 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,6 +1856,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +1902,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -431,16 +1927,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,31 +1977,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +2004,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +2519,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="57.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +2549,645 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
